--- a/_output/AM/UI Results/UI Result - u4(b) VS u4(a).xlsx
+++ b/_output/AM/UI Results/UI Result - u4(b) VS u4(a).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Feature</t>
   </si>
@@ -28,6 +28,12 @@
     <t>Chi Square</t>
   </si>
   <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Expected</t>
+  </si>
+  <si>
     <t>Is Significant</t>
   </si>
   <si>
@@ -41,6 +47,24 @@
   </si>
   <si>
     <t>d2</t>
+  </si>
+  <si>
+    <t>[393 577] ; [16  4]</t>
+  </si>
+  <si>
+    <t>[211 374] ; [15  5]</t>
+  </si>
+  <si>
+    <t>[455 518] ; [17  3]</t>
+  </si>
+  <si>
+    <t>[400.73737374 569.26262626] ; [ 8.26262626 11.73737374]</t>
+  </si>
+  <si>
+    <t>[218.52892562 366.47107438] ; [ 7.47107438 12.52892562]</t>
+  </si>
+  <si>
+    <t>[462.49345418 510.50654582] ; [ 9.50654582 10.49345418]</t>
   </si>
 </sst>
 </file>
@@ -398,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,13 +444,19 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -437,16 +467,22 @@
       <c r="E2">
         <v>12.60061</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -457,16 +493,22 @@
       <c r="E3">
         <v>12.525603</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -477,16 +519,22 @@
       <c r="E4">
         <v>12.525603</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -497,7 +545,13 @@
       <c r="E5">
         <v>11.489187</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
     </row>
